--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t xml:space="preserve">Day Count</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t xml:space="preserve">Rest Api, Http, Status codes, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUD operations</t>
   </si>
 </sst>
 </file>
@@ -248,10 +254,10 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.53"/>
@@ -428,10 +434,18 @@
       <c r="C8" s="8" t="n">
         <v>45345</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
@@ -441,10 +455,18 @@
       <c r="C9" s="8" t="n">
         <v>45348</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
